--- a/5. Real-Time Deepfake Detection in Video Streams project/Real-Time Deepfake Detection in Video Streams project.xlsx
+++ b/5. Real-Time Deepfake Detection in Video Streams project/Real-Time Deepfake Detection in Video Streams project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Machine_Learning_Projects\5. Real-Time Deepfake Detection in Video Streams project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7587386A-A408-402F-8288-9769547F738C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8BC048-18D7-4183-BDD2-D73CEBBB0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A2F8B55-1381-4E18-92CA-081F08808319}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9A2F8B55-1381-4E18-92CA-081F08808319}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>S. No</t>
   </si>
@@ -249,13 +250,28 @@
   </si>
   <si>
     <t>Celeb-DF</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Celeb-DF Done 10 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cloud setup : Google Colab</t>
+  </si>
+  <si>
+    <t>Progress/Done</t>
+  </si>
+  <si>
+    <t>need to be done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +328,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -750,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,6 +1006,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,14 +1114,14 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F24A342-D6F2-4F32-8183-0C5FF39847F9}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F19"/>
     </sheetView>
   </sheetViews>
@@ -1445,17 +1477,18 @@
     <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.109375" style="1"/>
+    <col min="6" max="6" width="26.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="14.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1478,10 +1511,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="87">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1493,11 +1526,13 @@
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="88"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
@@ -1507,13 +1542,15 @@
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="89">
+      <c r="A5" s="92">
         <v>2</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="104" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1525,11 +1562,13 @@
       <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="89"/>
-      <c r="B6" s="102"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
@@ -1542,10 +1581,10 @@
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="90">
+      <c r="A7" s="93">
         <v>3</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="106" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="22" t="s">
@@ -1560,8 +1599,8 @@
       <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="26" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1613,8 @@
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="30" t="s">
         <v>26</v>
       </c>
@@ -1588,10 +1627,10 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="93">
+      <c r="A10" s="96">
         <v>4</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="109" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -1606,8 +1645,8 @@
       <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
-      <c r="B11" s="107"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="38" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1659,8 @@
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="93"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="42" t="s">
         <v>36</v>
       </c>
@@ -1634,10 +1673,10 @@
       <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="94">
+      <c r="A13" s="97">
         <v>5</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="112" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -1652,8 +1691,8 @@
       <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="62" t="s">
         <v>43</v>
       </c>
@@ -1666,10 +1705,10 @@
       <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="96">
+      <c r="A15" s="99">
         <v>6</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="78" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="46" t="s">
@@ -1684,8 +1723,8 @@
       <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="50" t="s">
         <v>50</v>
       </c>
@@ -1698,8 +1737,8 @@
       <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="54" t="s">
         <v>53</v>
       </c>
@@ -1712,10 +1751,10 @@
       <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="97">
+      <c r="A18" s="100">
         <v>7</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="88" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="66" t="s">
@@ -1730,8 +1769,8 @@
       <c r="F18" s="69"/>
     </row>
     <row r="19" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="98"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="70" t="s">
         <v>60</v>
       </c>
@@ -1745,10 +1784,10 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="86" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="76" t="s">
@@ -1759,8 +1798,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="82"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="77" t="s">
         <v>65</v>
       </c>
@@ -1770,16 +1809,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B3:B4"/>
@@ -1787,6 +1816,231 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B18:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC24FEC-7061-4BE0-B068-B77473BD28FD}">
+  <dimension ref="E2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="3.6640625" customWidth="1"/>
+    <col min="5" max="7" width="27.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+    </row>
+    <row r="4" spans="5:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="E5" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="103"/>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="E7" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="105"/>
+      <c r="F8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E9" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E10" s="107"/>
+      <c r="F10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="108"/>
+      <c r="F11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E12" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E13" s="110"/>
+      <c r="F13" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="111"/>
+      <c r="F14" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E15" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="113"/>
+      <c r="F16" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E17" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="E18" s="79"/>
+      <c r="F18" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="80"/>
+      <c r="F19" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="E20" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="89"/>
+      <c r="F21" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
